--- a/spliced/falling/2023-03-25_18-01-46/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0218384321779012</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1020144969224929</v>
+        <v>-0.036499198526144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.090408056974411</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0655152946710586</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2060143053531646</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2438879460096359</v>
+        <v>0.0018325957935303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1971567571163177</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3791945874691009</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0610865242779254</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3149010241031647</v>
+        <v>-0.0655152946710586</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4572326242923736</v>
+        <v>0.2060143053531646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2616030275821686</v>
+        <v>0.2438879460096359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2191479057073593</v>
+        <v>0.1971567571163177</v>
       </c>
       <c r="B6" t="n">
-        <v>1.047023057937622</v>
+        <v>0.3791945874691009</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.168585181236267</v>
+        <v>-0.3149010241031647</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.228741884231567</v>
+        <v>0.4572326242923736</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9682214260101318</v>
+        <v>0.2616030275821686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5827654600143433</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8587238192558289</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.957046031951904</v>
+        <v>-0.107512280344963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6496551632881165</v>
+        <v>1.168585181236267</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.849991798400879</v>
+        <v>-2.228741884231567</v>
       </c>
       <c r="C9" t="n">
-        <v>1.479821085929871</v>
+        <v>-0.9682214260101318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3932445049285888</v>
+        <v>0.5827654600143433</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2875648140907287</v>
+        <v>0.8587238192558289</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4578435122966766</v>
+        <v>-2.957046031951904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0209221355617046</v>
+        <v>-0.6496551632881165</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8381071090698242</v>
+        <v>-2.849991798400879</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4121813178062439</v>
+        <v>1.479821085929871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3355177342891693</v>
+        <v>0.3932445049285888</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.3600914478302</v>
+        <v>-0.2875648140907287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2121229618787765</v>
+        <v>-0.4578435122966766</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1876883506774902</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.909106612205505</v>
+        <v>0.8381071090698242</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6495024561882019</v>
+        <v>-0.4121813178062439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.6143777370452881</v>
+        <v>-0.3355177342891693</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0381790772080421</v>
+        <v>-1.3600914478302</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1973094791173935</v>
+        <v>0.2121229618787765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2321287989616394</v>
+        <v>0.1876883506774902</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2197587788105011</v>
+        <v>-1.909106612205505</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07544185966253281</v>
+        <v>-0.6495024561882019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.051312681287527</v>
+        <v>-0.6143777370452881</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1487456858158111</v>
+        <v>0.0381790772080421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2446515262126922</v>
+        <v>-0.1973094791173935</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0394008085131645</v>
+        <v>-0.2321287989616394</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1130100712180137</v>
+        <v>-0.2197587788105011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1357648074626922</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.038026362657547</v>
+        <v>-0.051312681287527</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1304197311401367</v>
+        <v>-0.1487456858158111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0140499006956815</v>
+        <v>0.2446515262126922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0109955742955207</v>
+        <v>0.0394008085131645</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0171042270958423</v>
+        <v>0.1130100712180137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008399397134780801</v>
+        <v>0.1357648074626922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.009468411095440299</v>
+        <v>0.038026362657547</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0296269636601209</v>
+        <v>0.1304197311401367</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01328631862998</v>
+        <v>0.0140499006956815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0082466807216405</v>
+        <v>-0.0109955742955207</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0019853119738399</v>
+        <v>0.0171042270958423</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0193949714303016</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.00167987938039</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0018325957935303</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.009010262787342</v>
+        <v>0.008399397134780801</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-46/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0218384321779012</v>
+        <v>0.0594066455960273</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.036499198526144</v>
+        <v>0.1411098688840866</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0226020142436027</v>
+        <v>0.0326812900602817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00137444678694</v>
+        <v>0.0723875313997268</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0125227374956011</v>
+        <v>0.0080939643085002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0018325957935303</v>
+        <v>0.0835358202457428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0029016099870204</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1020144969224929</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.090408056974411</v>
+        <v>0.0937678143382072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0655152946710586</v>
+        <v>0.0433714315295219</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2060143053531646</v>
+        <v>0.0073303831741213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2438879460096359</v>
+        <v>-0.0807869285345077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1971567571163177</v>
+        <v>0.0352774672210216</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3791945874691009</v>
+        <v>0.0056505035609006</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0610865242779254</v>
+        <v>0.0056505035609006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3149010241031647</v>
+        <v>0.0557414554059505</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4572326242923736</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2616030275821686</v>
+        <v>-0.1820378452539444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2191479057073593</v>
+        <v>-0.0462730415165424</v>
       </c>
       <c r="B8" t="n">
-        <v>1.047023057937622</v>
+        <v>-0.0134390350431203</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.0310014113783836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.168585181236267</v>
+        <v>0.0276416521519422</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.228741884231567</v>
+        <v>0.001527163083665</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9682214260101318</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5827654600143433</v>
+        <v>-0.0464257597923278</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8587238192558289</v>
+        <v>-0.0105374250560998</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.957046031951904</v>
+        <v>-0.06368270516395561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6496551632881165</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.849991798400879</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="C11" t="n">
-        <v>1.479821085929871</v>
+        <v>0.0233655963093042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3932445049285888</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2875648140907287</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4578435122966766</v>
+        <v>0.0587957799434661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.0198531206697225</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8381071090698242</v>
+        <v>-0.0583376325666904</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4121813178062439</v>
+        <v>0.0022907445672899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.3355177342891693</v>
+        <v>-0.0027488935738801</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.3600914478302</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2121229618787765</v>
+        <v>0.0137444678694009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1876883506774902</v>
+        <v>0.0218384321779012</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.909106612205505</v>
+        <v>-0.036499198526144</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6495024561882019</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6143777370452881</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0381790772080421</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1973094791173935</v>
+        <v>0.0018325957935303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.2321287989616394</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2197587788105011</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07544185966253281</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.051312681287527</v>
+        <v>-0.0655152946710586</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1487456858158111</v>
+        <v>0.2060143053531646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2446515262126922</v>
+        <v>0.2438879460096359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0394008085131645</v>
+        <v>0.1971567571163177</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1130100712180137</v>
+        <v>0.3791945874691009</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1357648074626922</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.038026362657547</v>
+        <v>-0.3149010241031647</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1304197311401367</v>
+        <v>0.4572326242923736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0140499006956815</v>
+        <v>0.2616030275821686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0109955742955207</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0171042270958423</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008399397134780801</v>
+        <v>-0.107512280344963</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.168585181236267</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.228741884231567</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9682214260101318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5827654600143433</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8587238192558289</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.957046031951904</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.6496551632881165</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.849991798400879</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.479821085929871</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.3932445049285888</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2875648140907287</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.4578435122966766</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0209221355617046</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8381071090698242</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4121813178062439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3355177342891693</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.3600914478302</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2121229618787765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1876883506774902</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.909106612205505</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.6495024561882019</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.6143777370452881</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0381790772080421</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1973094791173935</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2321287989616394</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2197587788105011</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07544185966253281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.051312681287527</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1487456858158111</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2446515262126922</v>
       </c>
     </row>
   </sheetData>
